--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>A</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Limit</t>
+  </si>
+  <si>
+    <t>1m = 3.281ft</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,6 +1177,11 @@
       </c>
       <c r="G17">
         <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,15 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Table1 - D vs NDL by Group" sheetId="4" r:id="rId2"/>
+    <sheet name="Table 1 - Group vs NDL by D" sheetId="5" r:id="rId3"/>
+    <sheet name="Table 3 - D vs RT by Group" sheetId="7" r:id="rId4"/>
+    <sheet name="Table 3b - D vs ANDL by Group" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
   <si>
     <t>A</t>
   </si>
@@ -262,6 +266,21 @@
   </si>
   <si>
     <t>1m = 3.281ft</t>
+  </si>
+  <si>
+    <t>Table3a - Residual Nitrogen Time (RT)</t>
+  </si>
+  <si>
+    <t>Table2 - Surface Interval (SI)</t>
+  </si>
+  <si>
+    <t>Table1 - No-Decompression Limits and Group</t>
+  </si>
+  <si>
+    <t>Table3b - Adjusted No-Decompression Limits</t>
+  </si>
+  <si>
+    <t>Minimum Times</t>
   </si>
 </sst>
 </file>
@@ -321,6 +340,5500 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Table1 - D vs NDL by Group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="2">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="3">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$4:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="4">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$4:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="531461184"/>
+        <c:axId val="84158144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="531461184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth (ft)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84158144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="84158144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>NDL (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="531461184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Table</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Group vs NDL by D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$11:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$12:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$14:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$15:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$16:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$18:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$19:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="550848512"/>
+        <c:axId val="562283072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="550848512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="562283072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562283072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>NDL</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="550848512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Table 3a - D vs RT by Group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$40:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$40:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$40:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$40:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$40:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$40:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$40:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$40:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$40:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$40:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$40:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="111099200"/>
+        <c:axId val="562239104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="111099200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth (ft)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="562239104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="562239104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RT (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111099200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Table 3b - D vs ANDL by Group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$57:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$57:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$57:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$57:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$57:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$57:$I$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$57:$J$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$57:$K$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$57:$L$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$57:$M$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$57:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$57:$N$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="84162176"/>
+        <c:axId val="562061888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84162176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth (ft)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="562061888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="562061888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ANDL (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84162176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670696" cy="6294356"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670696" cy="6294356"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670696" cy="6294356"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670696" cy="6294356"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,10 +6123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A2:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,470 +6134,414 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="15" width="8.85546875" customWidth="1"/>
+    <col min="17" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>60</v>
-      </c>
-      <c r="F2">
-        <v>120</v>
-      </c>
-      <c r="G2">
-        <v>210</v>
-      </c>
-      <c r="H2">
-        <v>300</v>
+      <c r="A2" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>70</v>
-      </c>
-      <c r="G3">
-        <v>110</v>
-      </c>
-      <c r="H3">
-        <v>160</v>
-      </c>
-      <c r="I3">
-        <v>225</v>
-      </c>
-      <c r="J3">
-        <v>350</v>
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>32</v>
-      </c>
       <c r="E4">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>135</v>
-      </c>
-      <c r="J4">
-        <v>180</v>
-      </c>
-      <c r="K4">
-        <v>240</v>
-      </c>
-      <c r="L4">
-        <v>325</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>38</v>
-      </c>
-      <c r="D5">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="H5">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="J5">
-        <v>125</v>
-      </c>
-      <c r="K5">
-        <v>160</v>
-      </c>
-      <c r="L5">
-        <v>195</v>
-      </c>
-      <c r="M5">
-        <v>245</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I6">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="J6">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="K6">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="L6">
-        <v>145</v>
-      </c>
-      <c r="M6">
-        <v>170</v>
-      </c>
-      <c r="N6">
-        <v>205</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>245</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
         <v>35</v>
       </c>
-      <c r="B7">
-        <v>46</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7">
+      <c r="G7">
+        <v>55</v>
+      </c>
+      <c r="H7">
+        <v>75</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>125</v>
+      </c>
+      <c r="K7">
         <v>160</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>25</v>
-      </c>
-      <c r="H7">
-        <v>40</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-      <c r="J7">
-        <v>60</v>
-      </c>
-      <c r="K7">
-        <v>80</v>
-      </c>
       <c r="L7">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="M7">
-        <v>120</v>
-      </c>
-      <c r="N7">
-        <v>140</v>
-      </c>
-      <c r="O7">
-        <v>160</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
         <v>40</v>
       </c>
-      <c r="B8">
-        <v>51</v>
-      </c>
       <c r="C8">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I8">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="J8">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K8">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="L8">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N8">
-        <v>110</v>
-      </c>
-      <c r="O8">
-        <v>130</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>46</v>
+      </c>
+      <c r="C9">
         <v>50</v>
       </c>
-      <c r="B9">
-        <v>63</v>
-      </c>
-      <c r="C9">
-        <v>69</v>
-      </c>
       <c r="D9">
-        <v>70</v>
+        <v>160</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>70</v>
+        <v>120</v>
+      </c>
+      <c r="N9">
+        <v>140</v>
+      </c>
+      <c r="O9">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D10">
+        <v>130</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>40</v>
+      </c>
+      <c r="J10">
         <v>50</v>
       </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
-      <c r="I10">
-        <v>25</v>
-      </c>
-      <c r="J10">
-        <v>30</v>
-      </c>
       <c r="K10">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>110</v>
+      </c>
+      <c r="O10">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>69</v>
+      </c>
+      <c r="D11">
         <v>70</v>
       </c>
-      <c r="B11">
-        <v>86</v>
-      </c>
-      <c r="C11">
-        <v>94</v>
-      </c>
-      <c r="D11">
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
         <v>40</v>
       </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>15</v>
-      </c>
-      <c r="I11">
-        <v>20</v>
-      </c>
-      <c r="J11">
-        <v>30</v>
-      </c>
       <c r="K11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="M11">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C12">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
         <v>30</v>
       </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>15</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12">
-        <v>25</v>
-      </c>
       <c r="K12">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B13">
-        <v>109</v>
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -1093,753 +6550,1075 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K13">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="L13">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B14">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="C14">
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J14">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
         <v>15</v>
       </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>13</v>
-      </c>
       <c r="J15">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>120</v>
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>121</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>110</v>
+      </c>
+      <c r="B17">
         <v>130</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L19" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>130</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="Q24">
+        <f>VALUE(LEFT(D24,FIND("-",D24)-1))*24*60</f>
+        <v>10</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q34" si="0">VALUE(LEFT(D25,FIND("-",D25)-1))*24*60</f>
+        <v>201</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R24:AA34" si="1">VALUE(LEFT(E25,FIND("-",E25)-1))*24*60</f>
+        <v>10</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F26" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E27" t="s">
         <v>24</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F27" t="s">
         <v>33</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G27" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F28" t="s">
         <v>34</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G28" t="s">
         <v>42</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H28" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>394.99999999999994</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>54.999999999999993</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F29" t="s">
         <v>35</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G29" t="s">
         <v>43</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H29" t="s">
         <v>50</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I29" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>426</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>46.000000000000007</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E30" t="s">
         <v>27</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F30" t="s">
         <v>36</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G30" t="s">
         <v>44</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H30" t="s">
         <v>51</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I30" t="s">
         <v>55</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J30" t="s">
         <v>61</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>17</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E31" t="s">
         <v>28</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F31" t="s">
         <v>37</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G31" t="s">
         <v>45</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H31" t="s">
         <v>52</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I31" t="s">
         <v>56</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J31" t="s">
         <v>62</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K31" t="s">
         <v>66</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>18</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E32" t="s">
         <v>29</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F32" t="s">
         <v>38</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G32" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H32" t="s">
         <v>53</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I32" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K32" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>313</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>122.99999999999999</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>19</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F33" t="s">
         <v>39</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G33" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H33" t="s">
         <v>54</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I33" t="s">
         <v>58</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J33" t="s">
         <v>64</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K33" t="s">
         <v>68</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L33" t="s">
         <v>71</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M33" t="s">
         <v>73</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>531</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>341</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>185.00000000000003</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="1"/>
+        <v>54.999999999999993</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>20</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E34" t="s">
         <v>31</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F34" t="s">
         <v>40</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G34" t="s">
         <v>48</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H34" t="s">
         <v>60</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I34" t="s">
         <v>59</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J34" t="s">
         <v>65</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K34" t="s">
         <v>69</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L34" t="s">
         <v>72</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M34" t="s">
         <v>74</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N34" t="s">
         <v>75</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>539</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>124.00000000000001</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="1"/>
+        <v>29.000000000000004</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="2" t="s">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="Q35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>10</v>
       </c>
-      <c r="B34">
+      <c r="B40">
         <v>16</v>
       </c>
-      <c r="C34">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D34">
+      <c r="D40">
         <v>39</v>
       </c>
-      <c r="E34">
+      <c r="E40">
         <v>88</v>
       </c>
-      <c r="F34">
+      <c r="F40">
         <v>159</v>
       </c>
-      <c r="G34">
+      <c r="G40">
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>20</v>
       </c>
-      <c r="B36">
+      <c r="B41">
         <v>28</v>
       </c>
-      <c r="C36">
+      <c r="C41">
         <v>32</v>
       </c>
-      <c r="D36">
+      <c r="D41">
         <v>18</v>
       </c>
-      <c r="E36">
+      <c r="E41">
         <v>39</v>
       </c>
-      <c r="F36">
+      <c r="F41">
         <v>65</v>
       </c>
-      <c r="G36">
+      <c r="G41">
         <v>88</v>
       </c>
-      <c r="H36">
+      <c r="H41">
         <v>120</v>
       </c>
-      <c r="I36">
+      <c r="I41">
         <v>159</v>
       </c>
-      <c r="J36">
+      <c r="J41">
         <v>205</v>
       </c>
-      <c r="K36">
+      <c r="K41">
         <v>279</v>
       </c>
-      <c r="L36">
+      <c r="L41">
         <v>399</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>30</v>
       </c>
-      <c r="B38">
+      <c r="B42">
         <v>40</v>
       </c>
-      <c r="C38">
+      <c r="C42">
         <v>44</v>
       </c>
-      <c r="D38">
+      <c r="D42">
         <v>12</v>
       </c>
-      <c r="E38">
+      <c r="E42">
         <v>25</v>
       </c>
-      <c r="F38">
+      <c r="F42">
         <v>39</v>
       </c>
-      <c r="G38">
+      <c r="G42">
         <v>54</v>
       </c>
-      <c r="H38">
+      <c r="H42">
         <v>70</v>
       </c>
-      <c r="I38">
+      <c r="I42">
         <v>88</v>
       </c>
-      <c r="J38">
+      <c r="J42">
         <v>109</v>
       </c>
-      <c r="K38">
+      <c r="K42">
         <v>132</v>
       </c>
-      <c r="L38">
+      <c r="L42">
         <v>159</v>
       </c>
-      <c r="M38">
+      <c r="M42">
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D39">
-        <v>193</v>
-      </c>
-      <c r="E39">
-        <v>180</v>
-      </c>
-      <c r="F39">
-        <v>166</v>
-      </c>
-      <c r="G39">
-        <v>151</v>
-      </c>
-      <c r="H39">
-        <v>135</v>
-      </c>
-      <c r="I39">
-        <v>117</v>
-      </c>
-      <c r="J39">
-        <v>96</v>
-      </c>
-      <c r="K39">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>25</v>
+      </c>
+      <c r="G43">
+        <v>37</v>
+      </c>
+      <c r="H43">
+        <v>49</v>
+      </c>
+      <c r="I43">
+        <v>61</v>
+      </c>
+      <c r="J43">
         <v>73</v>
       </c>
-      <c r="L39">
-        <v>46</v>
-      </c>
-      <c r="M39">
-        <v>15</v>
+      <c r="K43">
+        <v>87</v>
+      </c>
+      <c r="L43">
+        <v>101</v>
+      </c>
+      <c r="M43">
+        <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>51</v>
-      </c>
-      <c r="C40">
-        <v>57</v>
-      </c>
-      <c r="D40">
-        <v>7</v>
-      </c>
-      <c r="E40">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <v>69</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>13</v>
+      </c>
+      <c r="F44">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <v>29</v>
+      </c>
+      <c r="H44">
+        <v>38</v>
+      </c>
+      <c r="I44">
+        <v>47</v>
+      </c>
+      <c r="J44">
+        <v>56</v>
+      </c>
+      <c r="K44">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <v>81</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
+      </c>
+      <c r="F45">
         <v>17</v>
       </c>
-      <c r="F40">
-        <v>25</v>
-      </c>
-      <c r="G40">
-        <v>37</v>
-      </c>
-      <c r="H40">
-        <v>49</v>
-      </c>
-      <c r="I40">
-        <v>61</v>
-      </c>
-      <c r="J40">
-        <v>73</v>
-      </c>
-      <c r="K40">
-        <v>87</v>
-      </c>
-      <c r="L40">
-        <v>101</v>
-      </c>
-      <c r="M40">
-        <v>116</v>
+      <c r="G45">
+        <v>24</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45">
+        <v>36</v>
+      </c>
+      <c r="J45">
+        <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D41">
-        <v>123</v>
-      </c>
-      <c r="E41">
-        <v>113</v>
-      </c>
-      <c r="F41">
-        <v>105</v>
-      </c>
-      <c r="G41">
-        <v>93</v>
-      </c>
-      <c r="H41">
-        <v>81</v>
-      </c>
-      <c r="I41">
-        <v>69</v>
-      </c>
-      <c r="J41">
-        <v>57</v>
-      </c>
-      <c r="K41">
-        <v>43</v>
-      </c>
-      <c r="L41">
-        <v>29</v>
-      </c>
-      <c r="M41">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>50</v>
-      </c>
-      <c r="B42">
-        <v>63</v>
-      </c>
-      <c r="C42">
-        <v>69</v>
-      </c>
-      <c r="D42">
-        <v>6</v>
-      </c>
-      <c r="E42">
-        <v>13</v>
-      </c>
-      <c r="F42">
-        <v>21</v>
-      </c>
-      <c r="G42">
-        <v>29</v>
-      </c>
-      <c r="H42">
-        <v>38</v>
-      </c>
-      <c r="I42">
-        <v>47</v>
-      </c>
-      <c r="J42">
-        <v>56</v>
-      </c>
-      <c r="K42">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D43">
-        <v>64</v>
-      </c>
-      <c r="E43">
-        <v>57</v>
-      </c>
-      <c r="F43">
-        <v>49</v>
-      </c>
-      <c r="G43">
-        <v>41</v>
-      </c>
-      <c r="H43">
-        <v>32</v>
-      </c>
-      <c r="I43">
-        <v>23</v>
-      </c>
-      <c r="J43">
-        <v>14</v>
-      </c>
-      <c r="K43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>60</v>
-      </c>
-      <c r="B44">
-        <v>75</v>
-      </c>
-      <c r="C44">
-        <v>81</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>11</v>
-      </c>
-      <c r="F44">
-        <v>17</v>
-      </c>
-      <c r="G44">
-        <v>24</v>
-      </c>
-      <c r="H44">
-        <v>30</v>
-      </c>
-      <c r="I44">
-        <v>36</v>
-      </c>
-      <c r="J44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D45">
-        <v>45</v>
-      </c>
-      <c r="E45">
-        <v>39</v>
-      </c>
-      <c r="F45">
-        <v>33</v>
-      </c>
-      <c r="G45">
-        <v>26</v>
-      </c>
-      <c r="H45">
-        <v>20</v>
-      </c>
-      <c r="I45">
-        <v>14</v>
-      </c>
-      <c r="J45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>70</v>
       </c>
@@ -1871,233 +7650,495 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>80</v>
+      </c>
+      <c r="B47">
+        <v>98</v>
+      </c>
+      <c r="C47">
+        <v>106</v>
+      </c>
       <c r="D47">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F47">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G47">
+        <v>18</v>
+      </c>
+      <c r="H47">
+        <v>23</v>
+      </c>
+      <c r="I47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>90</v>
+      </c>
+      <c r="B48">
+        <v>109</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>16</v>
+      </c>
+      <c r="H48">
         <v>20</v>
       </c>
-      <c r="H47">
+      <c r="I48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="B49">
+        <v>121</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
         <v>14</v>
       </c>
-      <c r="I47">
-        <v>9</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="H49">
+        <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>80</v>
-      </c>
-      <c r="B48">
-        <v>98</v>
-      </c>
-      <c r="C48">
-        <v>106</v>
-      </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-      <c r="E48">
-        <v>8</v>
-      </c>
-      <c r="F48">
-        <v>13</v>
-      </c>
-      <c r="G48">
-        <v>18</v>
-      </c>
-      <c r="H48">
-        <v>23</v>
-      </c>
-      <c r="I48">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D49">
-        <v>26</v>
-      </c>
-      <c r="E49">
-        <v>22</v>
-      </c>
-      <c r="F49">
-        <v>17</v>
-      </c>
-      <c r="G49">
-        <v>12</v>
-      </c>
-      <c r="H49">
-        <v>7</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B50">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50">
-        <v>16</v>
-      </c>
-      <c r="H50">
-        <v>20</v>
-      </c>
-      <c r="I50">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>120</v>
+      </c>
       <c r="D51">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>14</v>
-      </c>
-      <c r="G51">
         <v>9</v>
       </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>100</v>
-      </c>
-      <c r="B52">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
-      <c r="E52">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F52">
+      <c r="L56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G52">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>20</v>
+      </c>
+      <c r="B58">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>40</v>
+      </c>
+      <c r="C59">
+        <v>44</v>
+      </c>
+      <c r="D59">
+        <v>193</v>
+      </c>
+      <c r="E59">
+        <v>180</v>
+      </c>
+      <c r="F59">
+        <v>166</v>
+      </c>
+      <c r="G59">
+        <v>151</v>
+      </c>
+      <c r="H59">
+        <v>135</v>
+      </c>
+      <c r="I59">
+        <v>117</v>
+      </c>
+      <c r="J59">
+        <v>96</v>
+      </c>
+      <c r="K59">
+        <v>73</v>
+      </c>
+      <c r="L59">
+        <v>46</v>
+      </c>
+      <c r="M59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>40</v>
+      </c>
+      <c r="B60">
+        <v>51</v>
+      </c>
+      <c r="C60">
+        <v>57</v>
+      </c>
+      <c r="D60">
+        <v>123</v>
+      </c>
+      <c r="E60">
+        <v>113</v>
+      </c>
+      <c r="F60">
+        <v>105</v>
+      </c>
+      <c r="G60">
+        <v>93</v>
+      </c>
+      <c r="H60">
+        <v>81</v>
+      </c>
+      <c r="I60">
+        <v>69</v>
+      </c>
+      <c r="J60">
+        <v>57</v>
+      </c>
+      <c r="K60">
+        <v>43</v>
+      </c>
+      <c r="L60">
+        <v>29</v>
+      </c>
+      <c r="M60">
         <v>14</v>
       </c>
-      <c r="H52">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>50</v>
+      </c>
+      <c r="B61">
+        <v>63</v>
+      </c>
+      <c r="C61">
+        <v>69</v>
+      </c>
+      <c r="D61">
+        <v>64</v>
+      </c>
+      <c r="E61">
+        <v>57</v>
+      </c>
+      <c r="F61">
+        <v>49</v>
+      </c>
+      <c r="G61">
+        <v>41</v>
+      </c>
+      <c r="H61">
+        <v>32</v>
+      </c>
+      <c r="I61">
+        <v>23</v>
+      </c>
+      <c r="J61">
+        <v>14</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>75</v>
+      </c>
+      <c r="C62">
+        <v>81</v>
+      </c>
+      <c r="D62">
+        <v>45</v>
+      </c>
+      <c r="E62">
+        <v>39</v>
+      </c>
+      <c r="F62">
+        <v>33</v>
+      </c>
+      <c r="G62">
+        <v>26</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>14</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>70</v>
+      </c>
+      <c r="B63">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>94</v>
+      </c>
+      <c r="D63">
+        <v>36</v>
+      </c>
+      <c r="E63">
+        <v>31</v>
+      </c>
+      <c r="F63">
+        <v>25</v>
+      </c>
+      <c r="G63">
+        <v>20</v>
+      </c>
+      <c r="H63">
+        <v>14</v>
+      </c>
+      <c r="I63">
+        <v>9</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>80</v>
+      </c>
+      <c r="B64">
+        <v>98</v>
+      </c>
+      <c r="C64">
+        <v>106</v>
+      </c>
+      <c r="D64">
+        <v>26</v>
+      </c>
+      <c r="E64">
+        <v>22</v>
+      </c>
+      <c r="F64">
+        <v>17</v>
+      </c>
+      <c r="G64">
+        <v>12</v>
+      </c>
+      <c r="H64">
+        <v>7</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>90</v>
+      </c>
+      <c r="B65">
+        <v>109</v>
+      </c>
+      <c r="D65">
+        <v>22</v>
+      </c>
+      <c r="E65">
         <v>18</v>
       </c>
+      <c r="F65">
+        <v>14</v>
+      </c>
+      <c r="G65">
+        <v>9</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D53">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>100</v>
+      </c>
+      <c r="B66">
+        <v>121</v>
+      </c>
+      <c r="D66">
         <v>17</v>
       </c>
-      <c r="E53">
+      <c r="E66">
         <v>13</v>
       </c>
-      <c r="F53">
+      <c r="F66">
         <v>10</v>
       </c>
-      <c r="G53">
+      <c r="G66">
         <v>6</v>
       </c>
-      <c r="H53">
+      <c r="H66">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>110</v>
       </c>
-      <c r="B54">
+      <c r="B67">
         <v>130</v>
       </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
-      <c r="F54">
-        <v>10</v>
-      </c>
-      <c r="G54">
-        <v>13</v>
+      <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D55">
-        <v>12</v>
-      </c>
-      <c r="E55">
-        <v>9</v>
-      </c>
-      <c r="F55">
-        <v>5</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>120</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>120</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>6</v>
-      </c>
-      <c r="F56">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D57">
-        <v>7</v>
-      </c>
-      <c r="E57">
-        <v>4</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>130</v>
       </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D59">
+      <c r="D69">
         <v>2</v>
       </c>
     </row>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -6125,8 +6125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
